--- a/insured_issued_age/generate_features_automatically/male_features.xlsx
+++ b/insured_issued_age/generate_features_automatically/male_features.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="141">
   <si>
     <t>Whole life</t>
   </si>
@@ -128,12 +128,12 @@
     3- 2   (count 2)
 • Number of customers charged with extra premium, based on high risk, is 131:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 71)
-    2- ('Sickness Hospital', 69)
-    3- ('Acc. Hospital', 64)
-    4- ('Term rider', 5)
+    1- ('Accidental Death', 76)
+    2- ('Sickness Hospital', 75)
+    3- ('Acc. Hospital', 70)
+    4- ('Term rider', 7)
     5- ('Inc. Term rider', 1)
-• Average number of riders purchased with this policy is 1.75
+• Average number of riders purchased with this policy is 1.7557251908
     </t>
   </si>
   <si>
@@ -162,12 +162,12 @@
     3- 2   (count 12)
 • Number of customers charged with extra premium, based on high risk, is 422:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 199)
-    2- ('Sickness Hospital', 156)
-    3- ('Acc. Hospital', 145)
-    4- ('M.I.P rider', 32)
-    5- ('Term rider', 10)
-• Average number of riders purchased with this policy is 1.3513513514
+    1- ('Accidental Death', 201)
+    2- ('Sickness Hospital', 161)
+    3- ('Acc. Hospital', 150)
+    4- ('M.I.P rider', 34)
+    5- ('Term rider', 11)
+• Average number of riders purchased with this policy is 1.3412322275
     </t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     3- 2   (count 19)
 • Number of customers charged with extra premium, based on high risk, is 968:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 465)
-    2- ('Sickness Hospital', 444)
-    3- ('Acc. Hospital', 425)
-    4- ('M.I.P rider', 116)
-    5- ('Term rider', 35)
-• Average number of riders purchased with this policy is 1.611827957
+    1- ('Accidental Death', 473)
+    2- ('Sickness Hospital', 449)
+    3- ('Acc. Hospital', 429)
+    4- ('M.I.P rider', 122)
+    5- ('Term rider', 37)
+• Average number of riders purchased with this policy is 1.5847107438
     </t>
   </si>
   <si>
@@ -230,12 +230,12 @@
     3- 2   (count 24)
 • Number of customers charged with extra premium, based on high risk, is 1,583:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 714)
-    2- ('Acc. Hospital', 670)
-    3- ('Accidental Death', 625)
-    4- ('M.I.P rider', 110)
-    5- ('Term rider', 58)
-• Average number of riders purchased with this policy is 1.5589488636
+    1- ('Sickness Hospital', 758)
+    2- ('Acc. Hospital', 705)
+    3- ('Accidental Death', 667)
+    4- ('M.I.P rider', 118)
+    5- ('Term rider', 71)
+• Average number of riders purchased with this policy is 1.499684144
     </t>
   </si>
   <si>
@@ -264,12 +264,12 @@
     3- 2   (count 39)
 • Number of customers charged with extra premium, based on high risk, is 2,504:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 853)
-    2- ('Acc. Hospital', 811)
-    3- ('Accidental Death', 515)
-    4- ('Term rider', 51)
-    5- ('M.I.P rider', 42)
-• Average number of riders purchased with this policy is 1.0379746835
+    1- ('Sickness Hospital', 890)
+    2- ('Acc. Hospital', 844)
+    3- ('Accidental Death', 559)
+    4- ('Term rider', 65)
+    5- ('M.I.P rider', 50)
+• Average number of riders purchased with this policy is 0.9988019169
     </t>
   </si>
   <si>
@@ -298,12 +298,12 @@
     3- 2   (count 19)
 • Number of customers charged with extra premium, based on high risk, is 848:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 144)
-    2- ('Acc. Hospital', 142)
-    3- ('Accidental Death', 53)
-    4- ('Term rider', 8)
-    5- ('Adult Disease Hospital', 7)
-• Average number of riders purchased with this policy is 0.4697368421
+    1- ('Sickness Hospital', 148)
+    2- ('Acc. Hospital', 147)
+    3- ('Accidental Death', 56)
+    4- ('Term rider', 14)
+    5- ('Inc. Dec. Term rider', 12)
+• Average number of riders purchased with this policy is 0.4658018868
     </t>
   </si>
   <si>
@@ -332,12 +332,12 @@
     3- 2   (count 28)
 • Number of customers charged with extra premium, based on high risk, is 1,657:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 119)
-    2- ('Acc. Hospital', 114)
-    3- ('Term rider', 8)
-    4- ('Accidental Death', 6)
-    5- ('Adult Disease Hospital', 3)
-• Average number of riders purchased with this policy is 0.1713900135
+    1- ('Sickness Hospital', 136)
+    2- ('Acc. Hospital', 127)
+    3- ('Inc. Term rider', 18)
+    4- ('Term rider', 16)
+    5- ('Inc. Dec. Term rider', 9)
+• Average number of riders purchased with this policy is 0.1907060954
     </t>
   </si>
   <si>
@@ -362,11 +362,12 @@
     1- 0   (count 33)
 • Number of customers charged with extra premium, based on high risk, is 33:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 10)
-    2- ('Accidental Death', 7)
-    3- ('Acc. Hospital', 5)
+    1- ('Sickness Hospital', 15)
+    2- ('Accidental Death', 14)
+    3- ('Acc. Hospital', 11)
     4- ('M.I.P rider', 1)
-• Average number of riders purchased with this policy is 1.15
+    5- ('Inc. Term rider', 1)
+• Average number of riders purchased with this policy is 1.2727272727
     </t>
   </si>
   <si>
@@ -394,12 +395,12 @@
     2- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 153:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 57)
-    2- ('Accidental Death', 41)
-    3- ('Acc. Hospital', 41)
+    1- ('Sickness Hospital', 73)
+    2- ('Acc. Hospital', 59)
+    3- ('Accidental Death', 56)
     4- ('M.I.P rider', 28)
-    5- ('Adult Disease Hospital', 4)
-• Average number of riders purchased with this policy is 1.5779816514
+    5- ('Inc. Term rider', 12)
+• Average number of riders purchased with this policy is 1.5294117647
     </t>
   </si>
   <si>
@@ -428,12 +429,12 @@
     3- 4   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 912:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 536)
-    2- ('Acc. Hospital', 361)
-    3- ('Accidental Death', 225)
-    4- ('M.I.P rider', 116)
-    5- ('Adult Disease Hospital', 57)
-• Average number of riders purchased with this policy is 1.8723098996
+    1- ('Sickness Hospital', 610)
+    2- ('Acc. Hospital', 429)
+    3- ('Accidental Death', 298)
+    4- ('M.I.P rider', 119)
+    5- ('Adult Disease Hospital', 61)
+• Average number of riders purchased with this policy is 1.7269736842
     </t>
   </si>
   <si>
@@ -462,12 +463,12 @@
     3- 2   (count 2)
 • Number of customers charged with extra premium, based on high risk, is 1,886:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 958)
-    2- ('Acc. Hospital', 606)
-    3- ('Accidental Death', 358)
-    4- ('M.I.P rider', 139)
-    5- ('Adult Disease Hospital', 119)
-• Average number of riders purchased with this policy is 1.757793765
+    1- ('Sickness Hospital', 1167)
+    2- ('Acc. Hospital', 809)
+    3- ('Accidental Death', 560)
+    4- ('Inc. Term rider', 181)
+    5- ('M.I.P rider', 154)
+• Average number of riders purchased with this policy is 1.6023329799
     </t>
   </si>
   <si>
@@ -496,12 +497,12 @@
     3- 3   (count 5)
 • Number of customers charged with extra premium, based on high risk, is 2,587:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 1303)
-    2- ('Acc. Hospital', 702)
-    3- ('Accidental Death', 397)
-    4- ('Adult Disease Hospital', 154)
-    5- ('M.I.P rider', 66)
-• Average number of riders purchased with this policy is 1.4781390135
+    1- ('Sickness Hospital', 1523)
+    2- ('Acc. Hospital', 915)
+    3- ('Accidental Death', 636)
+    4- ('Inc. Term rider', 190)
+    5- ('Adult Disease Hospital', 175)
+• Average number of riders purchased with this policy is 1.3652879784
     </t>
   </si>
   <si>
@@ -530,12 +531,12 @@
     3- 2   (count 3)
 • Number of customers charged with extra premium, based on high risk, is 714:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 270)
-    2- ('Acc. Hospital', 76)
-    3- ('Accidental Death', 56)
-    4- ('M.I.P rider', 10)
-    5- ('Inc. Term rider', 5)
-• Average number of riders purchased with this policy is 0.7804428044
+    1- ('Sickness Hospital', 298)
+    2- ('Acc. Hospital', 106)
+    3- ('Accidental Death', 84)
+    4- ('Inc. Term rider', 32)
+    5- ('M.I.P rider', 14)
+• Average number of riders purchased with this policy is 0.7619047619
     </t>
   </si>
   <si>
@@ -564,12 +565,12 @@
     3- 2   (count 4)
 • Number of customers charged with extra premium, based on high risk, is 941:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 294)
-    2- ('Acc. Hospital', 66)
-    3- ('Accidental Death', 18)
-    4- ('Adult Disease Hospital', 2)
-    5- ('M.I.P rider', 2)
-• Average number of riders purchased with this policy is 0.5657311669
+    1- ('Sickness Hospital', 318)
+    2- ('Acc. Hospital', 94)
+    3- ('Inc. Term rider', 37)
+    4- ('Accidental Death', 21)
+    5- ('Adult Disease Hospital', 5)
+• Average number of riders purchased with this policy is 0.5100956429
     </t>
   </si>
   <si>
@@ -626,7 +627,7 @@
     3- ('Term rider', 1)
     4- ('Acc. Hospital', 1)
     5- ('Sickness Hospital', 1)
-• Average number of riders purchased with this policy is 0.1976744186
+• Average number of riders purchased with this policy is 0.1954022989
     </t>
   </si>
   <si>
@@ -653,12 +654,12 @@
     1- 0   (count 335)
 • Number of customers charged with extra premium, based on high risk, is 335:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 14)
-    2- ('M.I.P rider', 9)
+    1- ('Accidental Death', 16)
+    2- ('M.I.P rider', 10)
     3- ('Term rider', 2)
     4- ('Family Medical', 2)
     5- ('Acc. Hospital', 1)
-• Average number of riders purchased with this policy is 0.0903426791
+• Average number of riders purchased with this policy is 0.0955223881
     </t>
   </si>
   <si>
@@ -685,12 +686,12 @@
     1- 0   (count 346)
 • Number of customers charged with extra premium, based on high risk, is 346:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 26)
-    2- ('Acc. Hospital', 6)
-    3- ('Sickness Hospital', 6)
-    4- ('M.I.P rider', 4)
-    5- ('Term rider', 4)
-• Average number of riders purchased with this policy is 0.1487341772
+    1- ('Accidental Death', 28)
+    2- ('Acc. Hospital', 7)
+    3- ('Sickness Hospital', 7)
+    4- ('M.I.P rider', 5)
+    5- ('Term rider', 5)
+• Average number of riders purchased with this policy is 0.1531791908
     </t>
   </si>
   <si>
@@ -717,12 +718,12 @@
     1- 0   (count 218)
 • Number of customers charged with extra premium, based on high risk, is 218:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 20)
-    2- ('Acc. Hospital', 2)
-    3- ('Sickness Hospital', 2)
-    4- ('Adult Disease Hospital', 1)
-    5- ('M.I.P rider', 1)
-• Average number of riders purchased with this policy is 0.1555555556
+    1- ('Accidental Death', 23)
+    2- ('Acc. Hospital', 3)
+    3- ('Sickness Hospital', 3)
+    4- ('Term rider', 2)
+    5- ('Adult Disease Hospital', 1)
+• Average number of riders purchased with this policy is 0.1559633028
     </t>
   </si>
   <si>
@@ -748,8 +749,8 @@
     1- 0   (count 39)
 • Number of customers charged with extra premium, based on high risk, is 39:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 1)
-• Average number of riders purchased with this policy is 0.0555555556
+    1- ('Accidental Death', 2)
+• Average number of riders purchased with this policy is 0.0512820513
     </t>
   </si>
   <si>
@@ -777,6 +778,7 @@
 • Number of customers charged with extra premium, based on high risk, is 36:
 • Top riders against this policy (Policy Type, Count):      
     1- ('Accidental Death', 2)
+    2- ('Term rider', 1)
 • Average number of riders purchased with this policy is 0.0833333333
     </t>
   </si>
@@ -832,9 +834,8 @@
 • Top riders against this policy (Policy Type, Count):      
     1- ('Advanced Medical', 3)
     2- ('Cancer Death', 2)
-    3- ('Female Operation', 2)
-    4- ('Cancer Dia', 1)
-• Average number of riders purchased with this policy is 0.0176211454
+    3- ('Cancer Dia', 1)
+• Average number of riders purchased with this policy is 0.0129032258
     </t>
   </si>
   <si>
@@ -860,12 +861,11 @@
     1- 0   (count 1271)
 • Number of customers charged with extra premium, based on high risk, is 1,271:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Advanced Medical', 16)
-    2- ('Family Cancer', 5)
-    3- ('Cancer Dia', 4)
-    4- ('Female Operation', 3)
-    5- ('Cancer Death', 2)
-• Average number of riders purchased with this policy is 0.0247116969
+    1- ('Advanced Medical', 13)
+    2- ('Family Cancer', 6)
+    3- ('Cancer Dia', 3)
+    4- ('Cancer Death', 1)
+• Average number of riders purchased with this policy is 0.0180959874
     </t>
   </si>
   <si>
@@ -892,12 +892,11 @@
     1- 0   (count 2684)
 • Number of customers charged with extra premium, based on high risk, is 2,684:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Advanced Medical', 21)
-    2- ('Female Operation', 10)
-    3- ('Cancer Dia', 7)
-    4- ('Family Cancer', 5)
-    5- ('Cancer Death', 2)
-• Average number of riders purchased with this policy is 0.0185414091
+    1- ('Advanced Medical', 20)
+    2- ('Cancer Dia', 9)
+    3- ('Family Cancer', 8)
+    4- ('Cancer Death', 2)
+• Average number of riders purchased with this policy is 0.0145305514
     </t>
   </si>
   <si>
@@ -924,12 +923,11 @@
     1- 0   (count 3128)
 • Number of customers charged with extra premium, based on high risk, is 3,128:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Advanced Medical', 35)
-    2- ('Cancer Dia', 12)
-    3- ('Female Operation', 8)
-    4- ('Family Cancer', 5)
-    5- ('Cancer Death', 4)
-• Average number of riders purchased with this policy is 0.0227920228
+    1- ('Advanced Medical', 36)
+    2- ('Cancer Dia', 17)
+    3- ('Family Cancer', 11)
+    4- ('Cancer Death', 4)
+• Average number of riders purchased with this policy is 0.0217391304
     </t>
   </si>
   <si>
@@ -956,12 +954,11 @@
     1- 0   (count 771)
 • Number of customers charged with extra premium, based on high risk, is 771:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Advanced Medical', 17)
-    2- ('Cancer Dia', 6)
-    3- ('Cancer Death', 2)
-    4- ('Female Operation', 2)
-    5- ('Family Cancer', 2)
-• Average number of riders purchased with this policy is 0.0425219941
+    1- ('Advanced Medical', 20)
+    2- ('Cancer Dia', 10)
+    3- ('Family Cancer', 4)
+    4- ('Cancer Death', 3)
+• Average number of riders purchased with this policy is 0.0479896239
     </t>
   </si>
   <si>
@@ -988,11 +985,11 @@
     1- 0   (count 756)
 • Number of customers charged with extra premium, based on high risk, is 756:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Advanced Medical', 24)
-    2- ('Cancer Dia', 8)
+    1- ('Advanced Medical', 27)
+    2- ('Cancer Dia', 11)
     3- ('Cancer Death', 6)
-    4- ('Female Operation', 4)
-• Average number of riders purchased with this policy is 0.059490085
+    4- ('Family Cancer', 1)
+• Average number of riders purchased with this policy is 0.0595238095
     </t>
   </si>
   <si>
@@ -1158,12 +1155,12 @@
     1- 0   (count 185)
 • Number of customers charged with extra premium, based on high risk, is 185:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Medical Operation', 87)
-    2- ('Acc. Hospital', 42)
-    3- ('Advanced Medical', 41)
-    4- ('Outpatient', 37)
-    5- ('Adult Disease Hospital', 22)
-• Average number of riders purchased with this policy is 1.6932515337
+    1- ('Medical Operation', 95)
+    2- ('Advanced Medical', 48)
+    3- ('Acc. Hospital', 46)
+    4- ('Outpatient', 34)
+    5- ('Adult Disease Hospital', 26)
+• Average number of riders purchased with this policy is 1.5891891892
     </t>
   </si>
   <si>
@@ -1190,12 +1187,12 @@
     2- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 635:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Medical Operation', 326)
-    2- ('Outpatient', 160)
-    3- ('Advanced Medical', 155)
-    4- ('Acc. Hospital', 114)
-    5- ('Adult Disease Hospital', 94)
-• Average number of riders purchased with this policy is 1.624600639
+    1- ('Medical Operation', 327)
+    2- ('Advanced Medical', 161)
+    3- ('Outpatient', 157)
+    4- ('Acc. Hospital', 111)
+    5- ('Adult Disease Hospital', 102)
+• Average number of riders purchased with this policy is 1.5700787402
     </t>
   </si>
   <si>
@@ -1223,12 +1220,12 @@
     2- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 1,445:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Medical Operation', 679)
-    2- ('Advanced Medical', 424)
-    3- ('Outpatient', 304)
-    4- ('Acc. Hospital', 301)
-    5- ('Adult Disease Hospital', 276)
-• Average number of riders purchased with this policy is 1.6617440225
+    1- ('Medical Operation', 702)
+    2- ('Advanced Medical', 423)
+    3- ('Acc. Hospital', 305)
+    4- ('Outpatient', 303)
+    5- ('Adult Disease Hospital', 282)
+• Average number of riders purchased with this policy is 1.6394463668
     </t>
   </si>
   <si>
@@ -1256,12 +1253,12 @@
     3- 4   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 2,416:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Medical Operation', 1215)
-    2- ('Advanced Medical', 515)
-    3- ('Acc. Hospital', 489)
-    4- ('Outpatient', 421)
-    5- ('Adult Disease Hospital', 308)
-• Average number of riders purchased with this policy is 1.4783369803
+    1- ('Medical Operation', 1301)
+    2- ('Advanced Medical', 531)
+    3- ('Acc. Hospital', 520)
+    4- ('Outpatient', 422)
+    5- ('Adult Disease Hospital', 331)
+• Average number of riders purchased with this policy is 1.4590231788
     </t>
   </si>
   <si>
@@ -1288,12 +1285,12 @@
     2- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 4,238:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Medical Operation', 1998)
-    2- ('Acc. Hospital', 951)
-    3- ('Advanced Medical', 817)
-    4- ('Outpatient', 581)
-    5- ('Cancer Hospital', 439)
-• Average number of riders purchased with this policy is 1.3825081679
+    1- ('Medical Operation', 2160)
+    2- ('Acc. Hospital', 1037)
+    3- ('Advanced Medical', 845)
+    4- ('Outpatient', 623)
+    5- ('Cancer Hospital', 455)
+• Average number of riders purchased with this policy is 1.3862671071
     </t>
   </si>
   <si>
@@ -1319,12 +1316,12 @@
     1- 0   (count 1899)
 • Number of customers charged with extra premium, based on high risk, is 1,899:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Medical Operation', 781)
-    2- ('Advanced Medical', 424)
-    3- ('Acc. Hospital', 379)
-    4- ('Outpatient', 250)
-    5- ('Cancer Hospital', 215)
-• Average number of riders purchased with this policy is 1.3055403182
+    1- ('Medical Operation', 829)
+    2- ('Advanced Medical', 435)
+    3- ('Acc. Hospital', 397)
+    4- ('Outpatient', 263)
+    5- ('Cancer Hospital', 221)
+• Average number of riders purchased with this policy is 1.3138493944
     </t>
   </si>
   <si>
@@ -1351,144 +1348,12 @@
     2- 2   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 2,006:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Advanced Medical', 668)
-    2- ('Medical Operation', 367)
-    3- ('Adult Disease Hospital', 242)
-    4- ('Acc. Hospital', 231)
-    5- ('Cancer Hospital', 204)
-• Average number of riders purchased with this policy is 1.0853979968
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Premium paid:
-    1- Total premium is 0 Yen
-    2- Average premium paid is 0 Yen 
-•Settlement amount:
-    1- Total settlement is 0 Yen
-    2- Average settlement paid is 0 Yen 
-• Average Policy retention period 0 Months 
-• The most utilized application channel: 
-    - No Application Channel used
-• The most common termination causes:  
-    - No Termination Reason
-• The most common prefectures:
-    - No Perfecture Against This Policy 
-• The most common numbers of APL loan:
-    - No APL LOAN 
-• Number of customers charged with extra premium, based on high risk, is 0:
-• Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 4)
-• Average number of riders purchased with this policy is 1.0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Premium paid:
-    1- Total premium is 0 Yen
-    2- Average premium paid is 0 Yen 
-•Settlement amount:
-    1- Total settlement is 0 Yen
-    2- Average settlement paid is 0 Yen 
-• Average Policy retention period 0 Months 
-• The most utilized application channel: 
-    - No Application Channel used
-• The most common termination causes:  
-    - No Termination Reason
-• The most common prefectures:
-    - No Perfecture Against This Policy 
-• The most common numbers of APL loan:
-    - No APL LOAN 
-• Number of customers charged with extra premium, based on high risk, is 0:
-• Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 11)
-• Average number of riders purchased with this policy is 1.0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Premium paid:
-    1- Total premium is 0 Yen
-    2- Average premium paid is 0 Yen 
-•Settlement amount:
-    1- Total settlement is 0 Yen
-    2- Average settlement paid is 0 Yen 
-• Average Policy retention period 0 Months 
-• The most utilized application channel: 
-    - No Application Channel used
-• The most common termination causes:  
-    - No Termination Reason
-• The most common prefectures:
-    - No Perfecture Against This Policy 
-• The most common numbers of APL loan:
-    - No APL LOAN 
-• Number of customers charged with extra premium, based on high risk, is 0:
-• Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 21)
-• Average number of riders purchased with this policy is 1.0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Premium paid:
-    1- Total premium is 0 Yen
-    2- Average premium paid is 0 Yen 
-•Settlement amount:
-    1- Total settlement is 0 Yen
-    2- Average settlement paid is 0 Yen 
-• Average Policy retention period 0 Months 
-• The most utilized application channel: 
-    - No Application Channel used
-• The most common termination causes:  
-    - No Termination Reason
-• The most common prefectures:
-    - No Perfecture Against This Policy 
-• The most common numbers of APL loan:
-    - No APL LOAN 
-• Number of customers charged with extra premium, based on high risk, is 0:
-• Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 19)
-• Average number of riders purchased with this policy is 1.0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Premium paid:
-    1- Total premium is 0 Yen
-    2- Average premium paid is 0 Yen 
-•Settlement amount:
-    1- Total settlement is 0 Yen
-    2- Average settlement paid is 0 Yen 
-• Average Policy retention period 0 Months 
-• The most utilized application channel: 
-    - No Application Channel used
-• The most common termination causes:  
-    - No Termination Reason
-• The most common prefectures:
-    - No Perfecture Against This Policy 
-• The most common numbers of APL loan:
-    - No APL LOAN 
-• Number of customers charged with extra premium, based on high risk, is 0:
-• Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 3)
-• Average number of riders purchased with this policy is 1.0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Premium paid:
-    1- Total premium is 0 Yen
-    2- Average premium paid is 0 Yen 
-•Settlement amount:
-    1- Total settlement is 0 Yen
-    2- Average settlement paid is 0 Yen 
-• Average Policy retention period 0 Months 
-• The most utilized application channel: 
-    - No Application Channel used
-• The most common termination causes:  
-    - No Termination Reason
-• The most common prefectures:
-    - No Perfecture Against This Policy 
-• The most common numbers of APL loan:
-    - No APL LOAN 
-• Number of customers charged with extra premium, based on high risk, is 0:
-• Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 1)
-• Average number of riders purchased with this policy is 1.0
+    1- ('Advanced Medical', 712)
+    2- ('Medical Operation', 396)
+    3- ('Adult Disease Hospital', 257)
+    4- ('Acc. Hospital', 245)
+    5- ('Cancer Hospital', 212)
+• Average number of riders purchased with this policy is 1.0847457627
     </t>
   </si>
   <si>
@@ -1513,8 +1378,8 @@
     1- 0   (count 8)
 • Number of customers charged with extra premium, based on high risk, is 8:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Family Medical', 1)
-• Average number of riders purchased with this policy is 0.1428571429
+    1- ('Family Medical', 2)
+• Average number of riders purchased with this policy is 0.25
     </t>
   </si>
   <si>
@@ -1544,7 +1409,7 @@
 • Number of customers charged with extra premium, based on high risk, is 49:
 • Top riders against this policy (Policy Type, Count):      
     1- ('Family Medical', 2)
-• Average number of riders purchased with this policy is 0.04
+• Average number of riders purchased with this policy is 0.0408163265
     </t>
   </si>
   <si>
@@ -1574,7 +1439,7 @@
 • Number of customers charged with extra premium, based on high risk, is 116:
 • Top riders against this policy (Policy Type, Count):      
     1- ('Family Medical', 12)
-• Average number of riders purchased with this policy is 0.1016949153
+• Average number of riders purchased with this policy is 0.1034482759
     </t>
   </si>
   <si>
@@ -1605,7 +1470,7 @@
 • Top riders against this policy (Policy Type, Count):      
     1- ('Family Medical', 23)
     2- ('Medical Operation(Solatium)', 1)
-• Average number of riders purchased with this policy is 0.2162162162
+• Average number of riders purchased with this policy is 0.2068965517
     </t>
   </si>
   <si>
@@ -1634,8 +1499,8 @@
     3- 2   (count 2)
 • Number of customers charged with extra premium, based on high risk, is 155:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Family Medical', 33)
-• Average number of riders purchased with this policy is 0.2244897959
+    1- ('Family Medical', 32)
+• Average number of riders purchased with this policy is 0.2064516129
     </t>
   </si>
   <si>
@@ -1665,7 +1530,7 @@
 • Number of customers charged with extra premium, based on high risk, is 31:
 • Top riders against this policy (Policy Type, Count):      
     1- ('Family Medical', 3)
-• Average number of riders purchased with this policy is 0.1071428571
+• Average number of riders purchased with this policy is 0.0967741935
     </t>
   </si>
   <si>
@@ -1693,7 +1558,7 @@
 • Number of customers charged with extra premium, based on high risk, is 19:
 • Top riders against this policy (Policy Type, Count):      
     1- ('Family Medical', 3)
-• Average number of riders purchased with this policy is 0.1875
+• Average number of riders purchased with this policy is 0.1578947368
     </t>
   </si>
   <si>
@@ -2003,8 +1868,9 @@
     2- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 215:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 1)
-• Average number of riders purchased with this policy is 0.0909090909
+    1- ('Accidental Death', 5)
+    2- ('Acc. Hospital', 1)
+• Average number of riders purchased with this policy is 0.0279069767
     </t>
   </si>
   <si>
@@ -2104,9 +1970,9 @@
     1- 0   (count 7)
 • Number of customers charged with extra premium, based on high risk, is 7:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Inc. Term rider', 2)
+    1- ('Inc. Term rider', 10)
     2- ('Accidental Death', 2)
-• Average number of riders purchased with this policy is 1.3333333333
+• Average number of riders purchased with this policy is 1.7142857143
     </t>
   </si>
   <si>
@@ -2131,8 +1997,8 @@
     1- 0   (count 11)
 • Number of customers charged with extra premium, based on high risk, is 11:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Inc. Term rider', 12)
+• Average number of riders purchased with this policy is 1.0909090909
     </t>
   </si>
   <si>
@@ -2158,9 +2024,10 @@
     2- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 14:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 4)
-    2- ('Acc. Hospital', 2)
-    3- ('Sickness Hospital', 2)
+    1- ('Inc. Term rider', 18)
+    2- ('Accidental Death', 4)
+    3- ('Acc. Hospital', 3)
+    4- ('Sickness Hospital', 3)
 • Average number of riders purchased with this policy is 2.0
     </t>
   </si>
@@ -2212,7 +2079,9 @@
 • Number of customers charged with extra premium, based on high risk, is 6:
 • Top riders against this policy (Policy Type, Count):      
     1- ('Inc. Term rider', 2)
-• Average number of riders purchased with this policy is 1.0
+    2- ('Acc. Hospital', 1)
+    3- ('Sickness Hospital', 1)
+• Average number of riders purchased with this policy is 0.6666666667
     </t>
   </si>
   <si>
@@ -2241,11 +2110,11 @@
     3- 2   (count 7)
 • Number of customers charged with extra premium, based on high risk, is 905:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Term rider', 137)
-    2- ('Sickness Hospital', 111)
-    3- ('Acc. Hospital', 106)
-    4- ('Accidental Death', 85)
-• Average number of riders purchased with this policy is 1.2194444444
+    1- ('Term rider', 114)
+    2- ('Sickness Hospital', 112)
+    3- ('Acc. Hospital', 105)
+    4- ('Accidental Death', 102)
+• Average number of riders purchased with this policy is 0.4784530387
     </t>
   </si>
   <si>
@@ -2274,11 +2143,11 @@
     3- 2   (count 24)
 • Number of customers charged with extra premium, based on high risk, is 2,736:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Term rider', 169)
-    2- ('Sickness Hospital', 109)
-    3- ('Acc. Hospital', 107)
-    4- ('Accidental Death', 81)
-• Average number of riders purchased with this policy is 0.7831932773
+    1- ('Term rider', 165)
+    2- ('Acc. Hospital', 127)
+    3- ('Sickness Hospital', 124)
+    4- ('Accidental Death', 104)
+• Average number of riders purchased with this policy is 0.1900584795
     </t>
   </si>
   <si>
@@ -2308,11 +2177,11 @@
 • Number of customers charged with extra premium, based on high risk, is 3,007:
 • Top riders against this policy (Policy Type, Count):      
     1- ('Term rider', 156)
-    2- ('Sickness Hospital', 107)
-    3- ('Acc. Hospital', 103)
-    4- ('Accidental Death', 81)
+    2- ('Sickness Hospital', 127)
+    3- ('Acc. Hospital', 120)
+    4- ('Accidental Death', 105)
     5- ('Adult Disease Hospital', 1)
-• Average number of riders purchased with this policy is 0.8452830189
+• Average number of riders purchased with this policy is 0.1692716994
     </t>
   </si>
   <si>
@@ -2341,12 +2210,12 @@
     3- 2   (count 17)
 • Number of customers charged with extra premium, based on high risk, is 2,803:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 89)
-    2- ('Acc. Hospital', 80)
-    3- ('Term rider', 76)
-    4- ('Accidental Death', 65)
-    5- ('M.I.P rider', 1)
-• Average number of riders purchased with this policy is 0.88101983
+    1- ('Sickness Hospital', 115)
+    2- ('Acc. Hospital', 101)
+    3- ('Term rider', 87)
+    4- ('Accidental Death', 85)
+    5- ('Endowment rider', 2)
+• Average number of riders purchased with this policy is 0.1394933999
     </t>
   </si>
   <si>
@@ -2375,12 +2244,12 @@
     3- 2   (count 3)
 • Number of customers charged with extra premium, based on high risk, is 1,358:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 88)
-    2- ('Acc. Hospital', 71)
-    3- ('Term rider', 44)
-    4- ('Accidental Death', 43)
-    5- ('Adult Disease Hospital', 2)
-• Average number of riders purchased with this policy is 0.9120879121
+    1- ('Sickness Hospital', 101)
+    2- ('Acc. Hospital', 88)
+    3- ('Accidental Death', 59)
+    4- ('Term rider', 55)
+    5- ('Adult Disease Hospital', 4)
+• Average number of riders purchased with this policy is 0.2275405007
     </t>
   </si>
   <si>
@@ -2409,11 +2278,11 @@
     3- 2   (count 2)
 • Number of customers charged with extra premium, based on high risk, is 229:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 23)
-    2- ('Acc. Hospital', 16)
-    3- ('Accidental Death', 6)
+    1- ('Sickness Hospital', 25)
+    2- ('Acc. Hospital', 18)
+    3- ('Accidental Death', 7)
     4- ('Term rider', 3)
-• Average number of riders purchased with this policy is 0.8571428571
+• Average number of riders purchased with this policy is 0.231441048
     </t>
   </si>
   <si>
@@ -2443,8 +2312,8 @@
 • Top riders against this policy (Policy Type, Count):      
     1- ('Sickness Hospital', 17)
     2- ('Acc. Hospital', 15)
-    3- ('Term rider', 5)
-• Average number of riders purchased with this policy is 0.7551020408
+    3- ('Term rider', 6)
+• Average number of riders purchased with this policy is 0.38
     </t>
   </si>
   <si>
@@ -2731,8 +2600,8 @@
     1- 0   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 1:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Acc. Hospital', 1)
+• Average number of riders purchased with this policy is 1.0
     </t>
   </si>
   <si>
@@ -2757,8 +2626,8 @@
     1- 0   (count 9)
 • Number of customers charged with extra premium, based on high risk, is 9:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Acc. Hospital', 8)
+• Average number of riders purchased with this policy is 0.8888888889
     </t>
   </si>
   <si>
@@ -2784,8 +2653,8 @@
     2- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 14:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Acc. Hospital', 14)
+• Average number of riders purchased with this policy is 1.0
     </t>
   </si>
   <si>
@@ -2811,7 +2680,7 @@
     2- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 40:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Acc. Hospital', 1)
+    1- ('Acc. Hospital', 40)
 • Average number of riders purchased with this policy is 1.0
     </t>
   </si>
@@ -2838,8 +2707,8 @@
     2- 3   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 68:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Acc. Hospital', 1)
-• Average number of riders purchased with this policy is 1.0
+    1- ('Acc. Hospital', 67)
+• Average number of riders purchased with this policy is 0.9852941176
     </t>
   </si>
   <si>
@@ -2865,7 +2734,7 @@
     2- 2   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 19:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Acc. Hospital', 2)
+    1- ('Acc. Hospital', 19)
 • Average number of riders purchased with this policy is 1.0
     </t>
   </si>
@@ -2891,32 +2760,8 @@
     1- 0   (count 22)
 • Number of customers charged with extra premium, based on high risk, is 22:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Acc. Hospital', 1)
+    1- ('Acc. Hospital', 22)
 • Average number of riders purchased with this policy is 1.0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Premium paid:
-    1- Total premium is 0 Yen
-    2- Average premium paid is 0 Yen 
-•Settlement amount:
-    1- Total settlement is 0 Yen
-    2- Average settlement paid is 0 Yen 
-• Average Policy retention period 0 Months 
-• The most utilized application channel: 
-    - No Application Channel used
-• The most common termination causes:  
-    - No Termination Reason
-• The most common prefectures:
-    - No Perfecture Against This Policy 
-• The most common numbers of APL loan:
-    - No APL LOAN 
-• Number of customers charged with extra premium, based on high risk, is 0:
-• Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 2)
-    2- ('Acc. Hospital', 2)
-    3- ('Sickness Hospital', 2)
-• Average number of riders purchased with this policy is 6.0
     </t>
   </si>
   <si>
@@ -2940,10 +2785,10 @@
     1- 0   (count 5)
 • Number of customers charged with extra premium, based on high risk, is 5:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 5)
-    2- ('Acc. Hospital', 5)
-    3- ('Sickness Hospital', 5)
-• Average number of riders purchased with this policy is 3.75
+    1- ('Accidental Death', 7)
+    2- ('Acc. Hospital', 7)
+    3- ('Sickness Hospital', 7)
+• Average number of riders purchased with this policy is 4.2
     </t>
   </si>
   <si>
@@ -2970,10 +2815,10 @@
     3- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 39:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 41)
-    2- ('Acc. Hospital', 38)
-    3- ('Accidental Death', 35)
-• Average number of riders purchased with this policy is 3.4545454545
+    1- ('Sickness Hospital', 46)
+    2- ('Acc. Hospital', 44)
+    3- ('Accidental Death', 39)
+• Average number of riders purchased with this policy is 3.3076923077
     </t>
   </si>
   <si>
@@ -3000,7 +2845,7 @@
     1- ('Acc. Hospital', 43)
     2- ('Sickness Hospital', 43)
     3- ('Accidental Death', 35)
-• Average number of riders purchased with this policy is 2.4693877551
+• Average number of riders purchased with this policy is 2.2407407407
     </t>
   </si>
   <si>
@@ -3027,10 +2872,10 @@
     3- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 59:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 46)
-    2- ('Acc. Hospital', 43)
-    3- ('Accidental Death', 22)
-• Average number of riders purchased with this policy is 2.1764705882
+    1- ('Sickness Hospital', 51)
+    2- ('Acc. Hospital', 49)
+    3- ('Accidental Death', 25)
+• Average number of riders purchased with this policy is 2.1186440678
     </t>
   </si>
   <si>
@@ -3078,9 +2923,9 @@
     1- 0   (count 8)
 • Number of customers charged with extra premium, based on high risk, is 8:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 4)
-    2- ('Acc. Hospital', 3)
-• Average number of riders purchased with this policy is 0.875
+    1- ('Acc. Hospital', 3)
+    2- ('Sickness Hospital', 3)
+• Average number of riders purchased with this policy is 0.75
     </t>
   </si>
   <si>
@@ -3105,8 +2950,10 @@
     1- 0   (count 4)
 • Number of customers charged with extra premium, based on high risk, is 4:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 1)
-• Average number of riders purchased with this policy is 0.3333333333
+    1- ('Accidental Death', 2)
+    2- ('Acc. Hospital', 1)
+    3- ('Sickness Hospital', 1)
+• Average number of riders purchased with this policy is 1.0
     </t>
   </si>
   <si>
@@ -3164,12 +3011,12 @@
     1- 0   (count 56)
 • Number of customers charged with extra premium, based on high risk, is 56:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 19)
-    2- ('M.I.P rider', 9)
+    1- ('Accidental Death', 22)
+    2- ('M.I.P rider', 11)
     3- ('Acc. Hospital', 7)
     4- ('Sickness Hospital', 7)
     5- ('Inc. Term rider', 2)
-• Average number of riders purchased with this policy is 0.8679245283
+• Average number of riders purchased with this policy is 0.9107142857
     </t>
   </si>
   <si>
@@ -3196,12 +3043,12 @@
     1- 0   (count 89)
 • Number of customers charged with extra premium, based on high risk, is 89:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 30)
+    1- ('Accidental Death', 31)
     2- ('M.I.P rider', 16)
     3- ('Sickness Hospital', 14)
     4- ('Acc. Hospital', 12)
     5- ('Term rider', 4)
-• Average number of riders purchased with this policy is 0.95
+• Average number of riders purchased with this policy is 0.8651685393
     </t>
   </si>
   <si>
@@ -3228,12 +3075,12 @@
     1- 0   (count 96)
 • Number of customers charged with extra premium, based on high risk, is 96:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 13)
-    2- ('Acc. Hospital', 10)
-    3- ('Sickness Hospital', 9)
-    4- ('Term rider', 3)
-    5- ('M.I.P rider', 1)
-• Average number of riders purchased with this policy is 0.4
+    1- ('Accidental Death', 14)
+    2- ('Acc. Hospital', 11)
+    3- ('Sickness Hospital', 10)
+    4- ('Term rider', 4)
+    5- ('M.I.P rider', 2)
+• Average number of riders purchased with this policy is 0.4375
     </t>
   </si>
   <si>
@@ -3263,7 +3110,7 @@
     1- ('Accidental Death', 1)
     2- ('Acc. Hospital', 1)
     3- ('Sickness Hospital', 1)
-• Average number of riders purchased with this policy is 0.1071428571
+• Average number of riders purchased with this policy is 0.0967741935
     </t>
   </si>
   <si>
@@ -3289,10 +3136,10 @@
     1- 0   (count 68)
 • Number of customers charged with extra premium, based on high risk, is 68:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Acc. Hospital', 5)
-    2- ('Sickness Hospital', 5)
+    1- ('Acc. Hospital', 7)
+    2- ('Sickness Hospital', 7)
     3- ('Accidental Death', 1)
-• Average number of riders purchased with this policy is 0.2115384615
+• Average number of riders purchased with this policy is 0.2205882353
     </t>
   </si>
   <si>
@@ -3320,7 +3167,7 @@
     2- ('Accidental Death', 1)
     3- ('Acc. Hospital', 1)
     4- ('Sickness Hospital', 1)
-• Average number of riders purchased with this policy is 0.5714285714
+• Average number of riders purchased with this policy is 0.1025641026
     </t>
   </si>
   <si>
@@ -3349,7 +3196,7 @@
     1- ('Accidental Death', 3)
     2- ('Acc. Hospital', 1)
     3- ('Sickness Hospital', 1)
-• Average number of riders purchased with this policy is 0.2631578947
+• Average number of riders purchased with this policy is 0.037593985
     </t>
   </si>
   <si>
@@ -3374,10 +3221,10 @@
     1- 0   (count 215)
 • Number of customers charged with extra premium, based on high risk, is 215:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 4)
-    2- ('Acc. Hospital', 3)
-    3- ('Sickness Hospital', 3)
-• Average number of riders purchased with this policy is 0.4545454545
+    1- ('Accidental Death', 3)
+    2- ('Acc. Hospital', 2)
+    3- ('Sickness Hospital', 2)
+• Average number of riders purchased with this policy is 0.0325581395
     </t>
   </si>
   <si>
@@ -3427,10 +3274,10 @@
     1- 0   (count 190)
 • Number of customers charged with extra premium, based on high risk, is 190:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 2)
-    2- ('Acc. Hospital', 1)
+    1- ('Accidental Death', 3)
+    2- ('Acc. Hospital', 2)
     3- ('Sickness Hospital', 1)
-• Average number of riders purchased with this policy is 0.3636363636
+• Average number of riders purchased with this policy is 0.0315789474
     </t>
   </si>
   <si>
@@ -3456,7 +3303,7 @@
 • Top riders against this policy (Policy Type, Count):      
     1- ('Acc. Hospital', 1)
     2- ('Sickness Hospital', 1)
-• Average number of riders purchased with this policy is 0.6666666667
+• Average number of riders purchased with this policy is 0.2857142857
     </t>
   </si>
   <si>
@@ -3938,16 +3785,16 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s">
         <v>57</v>
@@ -3956,34 +3803,34 @@
         <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="P2" t="s">
         <v>57</v>
       </c>
       <c r="Q2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="R2" t="s">
         <v>57</v>
       </c>
       <c r="S2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="T2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="U2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" t="s">
         <v>127</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>134</v>
-      </c>
-      <c r="W2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -4009,52 +3856,52 @@
         <v>64</v>
       </c>
       <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
         <v>71</v>
       </c>
-      <c r="I3" t="s">
-        <v>77</v>
-      </c>
       <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
         <v>84</v>
       </c>
-      <c r="K3" t="s">
-        <v>90</v>
-      </c>
       <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
         <v>91</v>
       </c>
-      <c r="M3" t="s">
-        <v>97</v>
-      </c>
       <c r="N3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P3" t="s">
         <v>57</v>
       </c>
       <c r="Q3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" t="s">
         <v>111</v>
       </c>
-      <c r="R3" t="s">
-        <v>117</v>
-      </c>
       <c r="S3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" t="s">
         <v>121</v>
       </c>
-      <c r="T3" t="s">
-        <v>90</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>128</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>135</v>
-      </c>
-      <c r="W3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -4080,52 +3927,52 @@
         <v>65</v>
       </c>
       <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
         <v>72</v>
       </c>
-      <c r="I4" t="s">
-        <v>78</v>
-      </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s">
         <v>92</v>
       </c>
-      <c r="M4" t="s">
-        <v>98</v>
-      </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P4" t="s">
         <v>57</v>
       </c>
       <c r="Q4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="R4" t="s">
         <v>57</v>
       </c>
       <c r="S4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T4" t="s">
+        <v>84</v>
+      </c>
+      <c r="U4" t="s">
         <v>122</v>
       </c>
-      <c r="T4" t="s">
-        <v>90</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>129</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>136</v>
-      </c>
-      <c r="W4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -4151,52 +3998,52 @@
         <v>66</v>
       </c>
       <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
         <v>73</v>
       </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" t="s">
         <v>93</v>
       </c>
-      <c r="M5" t="s">
-        <v>99</v>
-      </c>
       <c r="N5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="P5" t="s">
         <v>57</v>
       </c>
       <c r="Q5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="S5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T5" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" t="s">
         <v>123</v>
       </c>
-      <c r="T5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>130</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>137</v>
-      </c>
-      <c r="W5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -4222,52 +4069,52 @@
         <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s">
         <v>94</v>
       </c>
-      <c r="M6" t="s">
-        <v>100</v>
-      </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P6" t="s">
         <v>57</v>
       </c>
       <c r="Q6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="R6" t="s">
         <v>57</v>
       </c>
       <c r="S6" t="s">
+        <v>118</v>
+      </c>
+      <c r="T6" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6" t="s">
         <v>124</v>
       </c>
-      <c r="T6" t="s">
-        <v>90</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>131</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>138</v>
-      </c>
-      <c r="W6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -4293,52 +4140,52 @@
         <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="s">
         <v>95</v>
       </c>
-      <c r="M7" t="s">
-        <v>101</v>
-      </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="P7" t="s">
         <v>57</v>
       </c>
       <c r="Q7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="R7" t="s">
         <v>57</v>
       </c>
       <c r="S7" t="s">
+        <v>119</v>
+      </c>
+      <c r="T7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U7" t="s">
         <v>125</v>
       </c>
-      <c r="T7" t="s">
-        <v>90</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>132</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>139</v>
-      </c>
-      <c r="W7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -4364,52 +4211,52 @@
         <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>96</v>
       </c>
-      <c r="M8" t="s">
-        <v>102</v>
-      </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P8" t="s">
         <v>57</v>
       </c>
       <c r="Q8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="S8" t="s">
+        <v>120</v>
+      </c>
+      <c r="T8" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" t="s">
         <v>126</v>
       </c>
-      <c r="T8" t="s">
-        <v>90</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>133</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>140</v>
-      </c>
-      <c r="W8" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
